--- a/SchematicPCB/BOM.xlsx
+++ b/SchematicPCB/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xiado\Project\someProject\beamforming\Beamforming_HW_TMS320VC5509A\SchematicPCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E1C08EC6-3EE4-4F46-8662-B38ED042E84C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2C5F7A-D5CF-4B27-A430-C7144A3D06E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMS320C5509A_DEV_BOARD" sheetId="1" r:id="rId1"/>
@@ -1003,7 +1003,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1140,7 +1140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1320,6 +1320,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1481,9 +1487,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1838,16 +1846,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" customWidth="1"/>
@@ -6502,29 +6511,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="180" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H180" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6606,29 +6615,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="184" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F184" t="s">
-        <v>13</v>
-      </c>
-      <c r="G184" t="s">
+      <c r="F184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="H184" t="s">
+      <c r="H184" s="2" t="s">
         <v>295</v>
       </c>
     </row>
@@ -6996,29 +7005,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="199" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F199" t="s">
-        <v>13</v>
-      </c>
-      <c r="G199" t="s">
+      <c r="F199" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G199" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="H199" t="s">
+      <c r="H199" s="3" t="s">
         <v>323</v>
       </c>
     </row>
